--- a/data/trans_orig/BARTHEL_R3-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R3-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>25703</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17425</v>
+        <v>18137</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34809</v>
+        <v>34953</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1992655155081664</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1350896250322691</v>
+        <v>0.1406029711506177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2698558989103615</v>
+        <v>0.2709721330334595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -765,19 +765,19 @@
         <v>67011</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54139</v>
+        <v>54275</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81380</v>
+        <v>82013</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2461735301093996</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1988870474129439</v>
+        <v>0.1993834434179435</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2989574293988124</v>
+        <v>0.3012832611954885</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>90</v>
@@ -786,19 +786,19 @@
         <v>92715</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76642</v>
+        <v>76667</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>110523</v>
+        <v>111037</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2310921411579708</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.191029264893136</v>
+        <v>0.1910926434412213</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2754791863353045</v>
+        <v>0.2767600650854074</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>103288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94182</v>
+        <v>94038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111566</v>
+        <v>110854</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8007344844918336</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7301441010896382</v>
+        <v>0.7290278669665404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8649103749677307</v>
+        <v>0.8593970288493821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -836,19 +836,19 @@
         <v>205201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>190832</v>
+        <v>190199</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>218073</v>
+        <v>217937</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7538264698906004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7010425706011877</v>
+        <v>0.6987167388045114</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8011129525870561</v>
+        <v>0.8006165565820564</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>315</v>
@@ -857,19 +857,19 @@
         <v>308488</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>290680</v>
+        <v>290166</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>324561</v>
+        <v>324536</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7689078588420292</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7245208136646955</v>
+        <v>0.7232399349145925</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.808970735106864</v>
+        <v>0.8089073565587783</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>20683</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13603</v>
+        <v>14150</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29759</v>
+        <v>30014</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.127235656401154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0836830159783522</v>
+        <v>0.0870493854384964</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.183067580344526</v>
+        <v>0.1846372929175289</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -982,19 +982,19 @@
         <v>38805</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>27356</v>
+        <v>28032</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50984</v>
+        <v>51273</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1905989922613585</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1343633815291943</v>
+        <v>0.1376851888849265</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2504166304248806</v>
+        <v>0.251834003055697</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>59</v>
@@ -1003,19 +1003,19 @@
         <v>59488</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45973</v>
+        <v>47063</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73441</v>
+        <v>74578</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1624685064562123</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.125555809093906</v>
+        <v>0.1285326254248782</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2005751113681033</v>
+        <v>0.2036794306759436</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>141872</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>132796</v>
+        <v>132541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148952</v>
+        <v>148405</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.872764343598846</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8169324196554747</v>
+        <v>0.8153627070824716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9163169840216484</v>
+        <v>0.9129506145615041</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>164</v>
@@ -1053,19 +1053,19 @@
         <v>164792</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>152613</v>
+        <v>152324</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>176241</v>
+        <v>175565</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8094010077386415</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7495833695751195</v>
+        <v>0.7481659969443029</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8656366184708061</v>
+        <v>0.8623148111150734</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>312</v>
@@ -1074,19 +1074,19 @@
         <v>306665</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>292712</v>
+        <v>291575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>320180</v>
+        <v>319090</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8375314935437876</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7994248886318966</v>
+        <v>0.7963205693240564</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8744441909060939</v>
+        <v>0.8714673745751217</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14617</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8628</v>
+        <v>8865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22718</v>
+        <v>23454</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1008658252667706</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05953869399089195</v>
+        <v>0.06117451815072553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.156769922912466</v>
+        <v>0.1618432632289708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -1199,19 +1199,19 @@
         <v>23324</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14957</v>
+        <v>15624</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33454</v>
+        <v>34384</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1596774636543696</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1024011550688502</v>
+        <v>0.1069642532869208</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2290291633829694</v>
+        <v>0.2354014370191347</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1220,19 +1220,19 @@
         <v>37941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27675</v>
+        <v>26854</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52490</v>
+        <v>50107</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1303879401242229</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09510689921907833</v>
+        <v>0.09228610903732271</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1803863333139388</v>
+        <v>0.1721997064822167</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>130299</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>122198</v>
+        <v>121462</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>136288</v>
+        <v>136051</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8991341747332293</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8432300770875345</v>
+        <v>0.8381567367710288</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9404613060091084</v>
+        <v>0.9388254818492745</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>119</v>
@@ -1270,19 +1270,19 @@
         <v>122743</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>112613</v>
+        <v>111683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>131110</v>
+        <v>130443</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8403225363456304</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7709708366170305</v>
+        <v>0.7645985629808654</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8975988449311493</v>
+        <v>0.8930357467130792</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>248</v>
@@ -1291,19 +1291,19 @@
         <v>253043</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>238494</v>
+        <v>240877</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>263309</v>
+        <v>264130</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8696120598757771</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8196136666860612</v>
+        <v>0.8278002935177833</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9048931007809217</v>
+        <v>0.9077138909626773</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>2743</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7375</v>
+        <v>6544</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05558429269668171</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01657118529860074</v>
+        <v>0.01675526378002602</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1494571388935155</v>
+        <v>0.1326254982595175</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1416,19 +1416,19 @@
         <v>6456</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2422</v>
+        <v>2285</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11893</v>
+        <v>12230</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.164551527178311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.061740167325991</v>
+        <v>0.05824497618343454</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3031132384519324</v>
+        <v>0.3117119944660312</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1437,19 +1437,19 @@
         <v>9199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4492</v>
+        <v>4586</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15756</v>
+        <v>15494</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1038512264806317</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05071119631932101</v>
+        <v>0.05177562982694026</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1778837101338699</v>
+        <v>0.1749233441426877</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>46599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41967</v>
+        <v>42798</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48524</v>
+        <v>48515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9444157073033183</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8505428611064844</v>
+        <v>0.8673745017404825</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9834288147013992</v>
+        <v>0.983244736219974</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -1487,19 +1487,19 @@
         <v>32779</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27342</v>
+        <v>27005</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36813</v>
+        <v>36950</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.835448472821689</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6968867615480676</v>
+        <v>0.6882880055339688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.938259832674009</v>
+        <v>0.9417550238165656</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -1508,19 +1508,19 @@
         <v>79377</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>72820</v>
+        <v>73082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>84084</v>
+        <v>83990</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8961487735193683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8221162898661311</v>
+        <v>0.825076655857312</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9492888036806798</v>
+        <v>0.9482243701730597</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>63746</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51088</v>
+        <v>50560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79217</v>
+        <v>80775</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1312174503603749</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1051621154409357</v>
+        <v>0.1040756561737637</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1630630715753057</v>
+        <v>0.166270864737661</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>125</v>
@@ -1633,19 +1633,19 @@
         <v>135597</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>115609</v>
+        <v>115604</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>157332</v>
+        <v>157546</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2051040787875604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1748697760790882</v>
+        <v>0.1748622523462477</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2379806308274077</v>
+        <v>0.2383048936697265</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>194</v>
@@ -1654,19 +1654,19 @@
         <v>199343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>175489</v>
+        <v>175739</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>224533</v>
+        <v>225573</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1738075961361671</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1530096651234935</v>
+        <v>0.1532270734248523</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1957714491250091</v>
+        <v>0.1966781277405213</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>422058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>406587</v>
+        <v>405029</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>434716</v>
+        <v>435244</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8687825496396252</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8369369284246942</v>
+        <v>0.8337291352623393</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8948378845590641</v>
+        <v>0.8959243438262364</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>520</v>
@@ -1704,19 +1704,19 @@
         <v>525515</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>503780</v>
+        <v>503566</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>545503</v>
+        <v>545508</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7948959212124396</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7620193691725922</v>
+        <v>0.7616951063302733</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8251302239209118</v>
+        <v>0.8251377476537523</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>957</v>
@@ -1725,19 +1725,19 @@
         <v>947573</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>922383</v>
+        <v>921343</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>971427</v>
+        <v>971177</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.826192403863833</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8042285508749907</v>
+        <v>0.8033218722594797</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8469903348765064</v>
+        <v>0.8467729265751478</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>35216</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24977</v>
+        <v>24920</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45951</v>
+        <v>47016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2560543527312354</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1816059271726844</v>
+        <v>0.1811895389896582</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3341100403057886</v>
+        <v>0.3418509113321865</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>74</v>
@@ -2090,19 +2090,19 @@
         <v>79389</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>65475</v>
+        <v>66434</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94013</v>
+        <v>94112</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3681647027877286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3036379800565543</v>
+        <v>0.3080879390985763</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4359849110236224</v>
+        <v>0.4364426874293165</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>106</v>
@@ -2111,19 +2111,19 @@
         <v>114605</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96511</v>
+        <v>96854</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132892</v>
+        <v>132283</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3245058000172849</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2732720062855654</v>
+        <v>0.2742434449741195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3762854346299835</v>
+        <v>0.3745618710757634</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>102317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>91582</v>
+        <v>90517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112556</v>
+        <v>112613</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7439456472687646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6658899596942114</v>
+        <v>0.6581490886678135</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8183940728273155</v>
+        <v>0.8188104610103418</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>127</v>
@@ -2161,19 +2161,19 @@
         <v>136245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>121621</v>
+        <v>121522</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150159</v>
+        <v>149200</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6318352972122714</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5640150889763773</v>
+        <v>0.5635573125706834</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6963620199434456</v>
+        <v>0.6919120609014237</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>218</v>
@@ -2182,19 +2182,19 @@
         <v>238562</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>220275</v>
+        <v>220884</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>256656</v>
+        <v>256313</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6754941999827152</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6237145653700165</v>
+        <v>0.6254381289242364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7267279937144343</v>
+        <v>0.7257565550258802</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>33687</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22683</v>
+        <v>23506</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45735</v>
+        <v>46396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1953219277499259</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1315194388248372</v>
+        <v>0.1362879634006081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.265177526222272</v>
+        <v>0.2690070395977427</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -2307,19 +2307,19 @@
         <v>82421</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>66539</v>
+        <v>67871</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97692</v>
+        <v>98577</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3335971606342739</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.269316458013034</v>
+        <v>0.2747049704783022</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3954078903829013</v>
+        <v>0.3989886915626469</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -2328,19 +2328,19 @@
         <v>116108</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>96756</v>
+        <v>98180</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>134531</v>
+        <v>134369</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2767527837320618</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2306257767082637</v>
+        <v>0.2340194844715271</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3206662415231592</v>
+        <v>0.3202805775585322</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>138783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>126735</v>
+        <v>126074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>149787</v>
+        <v>148964</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8046780722500742</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7348224737777278</v>
+        <v>0.7309929604022573</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8684805611751628</v>
+        <v>0.8637120365993919</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>159</v>
@@ -2378,19 +2378,19 @@
         <v>164646</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>149375</v>
+        <v>148490</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>180528</v>
+        <v>179196</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6664028393657262</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.604592109617099</v>
+        <v>0.6010113084373527</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7306835419869664</v>
+        <v>0.7252950295216977</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>288</v>
@@ -2399,19 +2399,19 @@
         <v>303428</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>285005</v>
+        <v>285167</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>322780</v>
+        <v>321356</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7232472162679382</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.679333758476841</v>
+        <v>0.6797194224414679</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7693742232917364</v>
+        <v>0.765980515528473</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>23772</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15400</v>
+        <v>16168</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35252</v>
+        <v>35135</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1430031354293387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09264114722533828</v>
+        <v>0.09725838813329957</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2120636347918727</v>
+        <v>0.211357323179606</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -2524,19 +2524,19 @@
         <v>46971</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35835</v>
+        <v>34399</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60977</v>
+        <v>60608</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2445497347012639</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1865741409109802</v>
+        <v>0.1790931604706912</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3174725807958026</v>
+        <v>0.3155486853584668</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -2545,19 +2545,19 @@
         <v>70743</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>54752</v>
+        <v>54523</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>86761</v>
+        <v>88131</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1974374893698417</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1528091143702393</v>
+        <v>0.1521693183716038</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2421433205879642</v>
+        <v>0.2459663250423038</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>142463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130983</v>
+        <v>131100</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>150835</v>
+        <v>150067</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8569968645706613</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7879363652081276</v>
+        <v>0.7886426768203945</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9073588527746619</v>
+        <v>0.9027416118667004</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -2595,19 +2595,19 @@
         <v>145100</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>131094</v>
+        <v>131463</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156236</v>
+        <v>157672</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7554502652987362</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6825274192041973</v>
+        <v>0.6844513146415331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8134258590890197</v>
+        <v>0.8209068395293088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>267</v>
@@ -2616,19 +2616,19 @@
         <v>287563</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>271545</v>
+        <v>270175</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>303554</v>
+        <v>303783</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8025625106301583</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7578566794120358</v>
+        <v>0.7540336749576962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8471908856297606</v>
+        <v>0.8478306816283964</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>12712</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6200</v>
+        <v>6590</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22281</v>
+        <v>21417</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1627730380615158</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07938919568832849</v>
+        <v>0.08437738930124655</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2853033098808473</v>
+        <v>0.2742390805247302</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -2741,19 +2741,19 @@
         <v>24501</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16797</v>
+        <v>16203</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33612</v>
+        <v>33711</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2880778572537796</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.197494023475892</v>
+        <v>0.1905101975360523</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3952053390105481</v>
+        <v>0.3963693987610857</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -2762,19 +2762,19 @@
         <v>37213</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26799</v>
+        <v>26787</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49253</v>
+        <v>50019</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2280957061936892</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1642657542850252</v>
+        <v>0.1641898486165486</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.301895488333272</v>
+        <v>0.3065911570259687</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>65385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>55816</v>
+        <v>56680</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71897</v>
+        <v>71507</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8372269619384842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7146966901191526</v>
+        <v>0.7257609194752699</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9206108043116714</v>
+        <v>0.9156226106987535</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -2812,19 +2812,19 @@
         <v>60549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>51438</v>
+        <v>51339</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68253</v>
+        <v>68847</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7119221427462203</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.604794660989452</v>
+        <v>0.6036306012389142</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.802505976524108</v>
+        <v>0.8094898024639475</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>110</v>
@@ -2833,19 +2833,19 @@
         <v>125933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>113893</v>
+        <v>113127</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>136347</v>
+        <v>136359</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7719042938063108</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6981045116667279</v>
+        <v>0.6934088429740312</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8357342457149742</v>
+        <v>0.8358101513834512</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>105387</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>85359</v>
+        <v>85391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>126301</v>
+        <v>125114</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1901148648769653</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1539851760976872</v>
+        <v>0.1540427332468544</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2278423668336025</v>
+        <v>0.2257018965397992</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -2958,19 +2958,19 @@
         <v>233281</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207824</v>
+        <v>208702</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>260962</v>
+        <v>259189</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3153212595109933</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2809112961960977</v>
+        <v>0.2820984984677283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3527365489050864</v>
+        <v>0.3503404487412939</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>307</v>
@@ -2979,19 +2979,19 @@
         <v>338668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>306202</v>
+        <v>305831</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>374477</v>
+        <v>375040</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.261690774790455</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2366037928093482</v>
+        <v>0.2363174464984231</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2893600212452804</v>
+        <v>0.289795202706952</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>448947</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>428033</v>
+        <v>429220</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>468975</v>
+        <v>468943</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8098851351230347</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.772157633166398</v>
+        <v>0.7742981034602006</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8460148239023129</v>
+        <v>0.8459572667531451</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>476</v>
@@ -3029,19 +3029,19 @@
         <v>506540</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>478859</v>
+        <v>480632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>531997</v>
+        <v>531119</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6846787404890067</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6472634510949135</v>
+        <v>0.649659551258706</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7190887038039022</v>
+        <v>0.7179015015322716</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>883</v>
@@ -3050,19 +3050,19 @@
         <v>955487</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>919678</v>
+        <v>919115</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>987953</v>
+        <v>988324</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.738309225209545</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7106399787547196</v>
+        <v>0.710204797293048</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7633962071906519</v>
+        <v>0.763682553501577</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>34711</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25398</v>
+        <v>25717</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45304</v>
+        <v>46647</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2085296171856341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1525799384601079</v>
+        <v>0.1544984405366246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2721728566814591</v>
+        <v>0.2802371284178818</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -3415,19 +3415,19 @@
         <v>99981</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>84964</v>
+        <v>84043</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>117775</v>
+        <v>116803</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3839839268965385</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3263117694128886</v>
+        <v>0.3227741724875648</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4523214451041399</v>
+        <v>0.448589003844564</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -3436,19 +3436,19 @@
         <v>134691</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114878</v>
+        <v>116245</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>155217</v>
+        <v>156009</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3155609224216123</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2691418173693453</v>
+        <v>0.2723443395912204</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3636479582583199</v>
+        <v>0.3655045897073838</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>131743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121150</v>
+        <v>119807</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>141056</v>
+        <v>140737</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7914703828143659</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7278271433185408</v>
+        <v>0.7197628715821182</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.847420061539892</v>
+        <v>0.8455015594633754</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -3486,19 +3486,19 @@
         <v>160397</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>142603</v>
+        <v>143575</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175414</v>
+        <v>176335</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6160160731034615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.54767855489586</v>
+        <v>0.5514109961554359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6736882305871114</v>
+        <v>0.6772258275124351</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>278</v>
@@ -3507,19 +3507,19 @@
         <v>292141</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>271615</v>
+        <v>270823</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>311954</v>
+        <v>310587</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6844390775783877</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.63635204174168</v>
+        <v>0.634495410292616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7308581826306546</v>
+        <v>0.7276556604087796</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>24863</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17931</v>
+        <v>16584</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34973</v>
+        <v>33928</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1464560031782488</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1056246701546208</v>
+        <v>0.09769173957964897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2060112766402338</v>
+        <v>0.1998533164557008</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -3632,19 +3632,19 @@
         <v>64184</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50689</v>
+        <v>50273</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80339</v>
+        <v>80410</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2906839766048103</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2295625928116901</v>
+        <v>0.2276826840390832</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3638459677176719</v>
+        <v>0.3641668154000083</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -3653,19 +3653,19 @@
         <v>89047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72700</v>
+        <v>74046</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105737</v>
+        <v>108188</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2279942414517274</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1861391872173122</v>
+        <v>0.1895863161816031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2707258697812203</v>
+        <v>0.2770011198044221</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>144900</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>134790</v>
+        <v>135835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>151832</v>
+        <v>153179</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8535439968217512</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7939887233597666</v>
+        <v>0.8001466835442992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8943753298453792</v>
+        <v>0.9023082604203508</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>136</v>
@@ -3703,19 +3703,19 @@
         <v>156621</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>140466</v>
+        <v>140395</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>170116</v>
+        <v>170532</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7093160233951896</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6361540322823285</v>
+        <v>0.6358331845999917</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7704374071883099</v>
+        <v>0.772317315960917</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>291</v>
@@ -3724,19 +3724,19 @@
         <v>301521</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>284831</v>
+        <v>282380</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>317868</v>
+        <v>316522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7720057585482726</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7292741302187795</v>
+        <v>0.7229988801955778</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8138608127826877</v>
+        <v>0.8104136838183968</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>19547</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13001</v>
+        <v>13008</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30316</v>
+        <v>29183</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1254886768775434</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08346156737568275</v>
+        <v>0.08350861143006078</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1946197684883271</v>
+        <v>0.1873447258358144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -3849,19 +3849,19 @@
         <v>51642</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38831</v>
+        <v>38324</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66940</v>
+        <v>66935</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2804991259736105</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2109186267307296</v>
+        <v>0.2081626253709684</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.363592492750293</v>
+        <v>0.3635658745208983</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -3870,19 +3870,19 @@
         <v>71189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55756</v>
+        <v>57143</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>88260</v>
+        <v>88587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2094553080944264</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.164048269173385</v>
+        <v>0.1681273975495013</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.259681675579171</v>
+        <v>0.2606441481524542</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>136224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125455</v>
+        <v>126588</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142770</v>
+        <v>142763</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8745113231224566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8053802315116726</v>
+        <v>0.8126552741641856</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9165384326243172</v>
+        <v>0.9164913885699392</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>113</v>
@@ -3920,19 +3920,19 @@
         <v>132464</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>117166</v>
+        <v>117171</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>145275</v>
+        <v>145782</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7195008740263894</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6364075072497088</v>
+        <v>0.6364341254791017</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7890813732692705</v>
+        <v>0.7918373746290315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>257</v>
@@ -3941,19 +3941,19 @@
         <v>268688</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>251617</v>
+        <v>251290</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>284121</v>
+        <v>282734</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7905446919055735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.740318324420829</v>
+        <v>0.7393558518475457</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8359517308266149</v>
+        <v>0.8318726024504987</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>18804</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12624</v>
+        <v>11767</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28179</v>
+        <v>26250</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2138154930226837</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1435391434331439</v>
+        <v>0.1338024182217035</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3204132429390826</v>
+        <v>0.2984776498028252</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -4066,19 +4066,19 @@
         <v>23271</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15024</v>
+        <v>14100</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33796</v>
+        <v>33438</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2184377625945096</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1410248672010208</v>
+        <v>0.1323510200528236</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3172278846042645</v>
+        <v>0.3138619587149089</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -4087,19 +4087,19 @@
         <v>42075</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30709</v>
+        <v>31372</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54910</v>
+        <v>54347</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2163475538004473</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1579043154342172</v>
+        <v>0.1613097075822753</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.282341251875443</v>
+        <v>0.2794442468838483</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>69141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59766</v>
+        <v>61695</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75321</v>
+        <v>76178</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7861845069773163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6795867570609176</v>
+        <v>0.7015223501971748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8564608565668563</v>
+        <v>0.8661975817782965</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -4137,19 +4137,19 @@
         <v>83265</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72740</v>
+        <v>73098</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91512</v>
+        <v>92436</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7815622374054904</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6827721153957355</v>
+        <v>0.6861380412850914</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8589751327989792</v>
+        <v>0.8676489799471765</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -4158,19 +4158,19 @@
         <v>152406</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>139571</v>
+        <v>140134</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163772</v>
+        <v>163109</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7836524461995527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.717658748124557</v>
+        <v>0.7205557531161514</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8420956845657828</v>
+        <v>0.8386902924177246</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>97925</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82107</v>
+        <v>80949</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116172</v>
+        <v>116213</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1688555419061348</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.141580292394085</v>
+        <v>0.1395836377718462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2003191236430807</v>
+        <v>0.2003895807581297</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>192</v>
@@ -4283,19 +4283,19 @@
         <v>239078</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>210211</v>
+        <v>213196</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>269126</v>
+        <v>269242</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3097573488132306</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2723556769764058</v>
+        <v>0.2762236838345458</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3486879467423911</v>
+        <v>0.3488383902618152</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>299</v>
@@ -4304,19 +4304,19 @@
         <v>337003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>304817</v>
+        <v>307377</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>369221</v>
+        <v>372682</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2493073845111237</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2254964922441916</v>
+        <v>0.2273908453902957</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2731410999244983</v>
+        <v>0.2757016017453401</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>482009</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>463762</v>
+        <v>463721</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>497827</v>
+        <v>498985</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8311444580938652</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7996808763569192</v>
+        <v>0.7996104192418703</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8584197076059149</v>
+        <v>0.8604163622281538</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>458</v>
@@ -4354,19 +4354,19 @@
         <v>532746</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>502698</v>
+        <v>502582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>561613</v>
+        <v>558628</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6902426511867694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6513120532576089</v>
+        <v>0.651161609738185</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7276443230235943</v>
+        <v>0.7237763161654542</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>967</v>
@@ -4375,19 +4375,19 @@
         <v>1014755</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>982537</v>
+        <v>979076</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1046941</v>
+        <v>1044381</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7506926154888763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7268589000755017</v>
+        <v>0.7242983982546596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7745035077558085</v>
+        <v>0.772609154609704</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>26032</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20084</v>
+        <v>19717</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33295</v>
+        <v>32778</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3927947304139381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3030424520634533</v>
+        <v>0.2975140532278584</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5023967509367234</v>
+        <v>0.4945867193531069</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -4740,19 +4740,19 @@
         <v>80801</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71607</v>
+        <v>71647</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88286</v>
+        <v>89234</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5712386584439281</v>
+        <v>0.571238658443928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5062406705314475</v>
+        <v>0.5065251704924024</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6241568203003667</v>
+        <v>0.630855007919682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -4761,19 +4761,19 @@
         <v>106832</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95597</v>
+        <v>96334</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118265</v>
+        <v>118707</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5143068039784648</v>
+        <v>0.5143068039784647</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.460220562669506</v>
+        <v>0.4637667024809907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.569343866172786</v>
+        <v>0.5714714418074356</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>40241</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32978</v>
+        <v>33495</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46189</v>
+        <v>46556</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6072052695860621</v>
+        <v>0.6072052695860622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4976032490632761</v>
+        <v>0.5054132806468931</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6969575479365467</v>
+        <v>0.7024859467721417</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>117</v>
@@ -4811,19 +4811,19 @@
         <v>60648</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53163</v>
+        <v>52215</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69842</v>
+        <v>69802</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.428761341556072</v>
+        <v>0.4287613415560718</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3758431796996334</v>
+        <v>0.3691449920803181</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4937593294685526</v>
+        <v>0.4934748295075976</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>171</v>
@@ -4832,19 +4832,19 @@
         <v>100889</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>89456</v>
+        <v>89014</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>112124</v>
+        <v>111387</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4856931960215353</v>
+        <v>0.4856931960215352</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.430656133827214</v>
+        <v>0.4285285581925643</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.539779437330494</v>
+        <v>0.5362332975190094</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>46887</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37723</v>
+        <v>37729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57836</v>
+        <v>57927</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2334980750672118</v>
+        <v>0.2334980750672119</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1878593378969629</v>
+        <v>0.1878929438803667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2880236089792958</v>
+        <v>0.2884773225205145</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -4957,19 +4957,19 @@
         <v>117414</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104669</v>
+        <v>104234</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>130563</v>
+        <v>129748</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3898875760011153</v>
+        <v>0.3898875760011155</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3475668034432111</v>
+        <v>0.3461201525107183</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4335491014493035</v>
+        <v>0.4308446868458758</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>300</v>
@@ -4978,19 +4978,19 @@
         <v>164301</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>149417</v>
+        <v>147517</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180985</v>
+        <v>179284</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3273248989286018</v>
+        <v>0.3273248989286017</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2976729051285889</v>
+        <v>0.2938865348822839</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3605638300015302</v>
+        <v>0.3571740910433898</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>153915</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>142966</v>
+        <v>142875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>163079</v>
+        <v>163073</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.766501924932788</v>
+        <v>0.7665019249327881</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.711976391020704</v>
+        <v>0.7115226774794861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.812140662103037</v>
+        <v>0.8121070561196335</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>341</v>
@@ -5028,19 +5028,19 @@
         <v>183735</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>170586</v>
+        <v>171401</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>196480</v>
+        <v>196915</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6101124239988847</v>
+        <v>0.6101124239988845</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5664508985506964</v>
+        <v>0.5691553131541239</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.652433196556788</v>
+        <v>0.6538798474892815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>560</v>
@@ -5049,19 +5049,19 @@
         <v>337650</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>320966</v>
+        <v>322667</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>352534</v>
+        <v>354434</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6726751010713982</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6394361699984696</v>
+        <v>0.6428259089566101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.702327094871411</v>
+        <v>0.706113465117716</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>33537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25920</v>
+        <v>25270</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43332</v>
+        <v>42315</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1462495674637675</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1130314734748084</v>
+        <v>0.1101976434521044</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1889623416332073</v>
+        <v>0.1845282028210402</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -5174,19 +5174,19 @@
         <v>74431</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64215</v>
+        <v>64537</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85194</v>
+        <v>85602</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3163159208895406</v>
+        <v>0.3163159208895407</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2729024659768609</v>
+        <v>0.274270691709375</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3620566466370195</v>
+        <v>0.3637923897262475</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>191</v>
@@ -5195,19 +5195,19 @@
         <v>107968</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93484</v>
+        <v>94094</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>120496</v>
+        <v>122317</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.232379096710735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2012050894271051</v>
+        <v>0.2025185253648878</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2593437652265613</v>
+        <v>0.2632637832265677</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>195777</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>185982</v>
+        <v>186999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>203394</v>
+        <v>204044</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8537504325362325</v>
+        <v>0.8537504325362326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8110376583667923</v>
+        <v>0.8154717971789599</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8869685265251915</v>
+        <v>0.8898023565478956</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>311</v>
@@ -5245,19 +5245,19 @@
         <v>160874</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>150111</v>
+        <v>149703</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>171090</v>
+        <v>170768</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6836840791104593</v>
+        <v>0.6836840791104595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6379433533629805</v>
+        <v>0.6362076102737521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7270975340231391</v>
+        <v>0.7257293082906248</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>585</v>
@@ -5266,19 +5266,19 @@
         <v>356651</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>344123</v>
+        <v>342302</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>371135</v>
+        <v>370525</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7676209032892649</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7406562347734389</v>
+        <v>0.7367362167734323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.798794910572895</v>
+        <v>0.7974814746351122</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>44807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35169</v>
+        <v>35067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>55462</v>
+        <v>55631</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2111617677931668</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1657386352780374</v>
+        <v>0.1652609858027514</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2613762738532554</v>
+        <v>0.2621696468643157</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>107</v>
@@ -5391,19 +5391,19 @@
         <v>57967</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49054</v>
+        <v>49217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67754</v>
+        <v>68324</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2812283146245568</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.237986782569522</v>
+        <v>0.2387766458199826</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3287100093473007</v>
+        <v>0.3314733980330123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>170</v>
@@ -5412,19 +5412,19 @@
         <v>102774</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>89127</v>
+        <v>90364</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>117826</v>
+        <v>119307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2456866513504225</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.213061545902198</v>
+        <v>0.2160191585248656</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2816678909585817</v>
+        <v>0.2852078691540739</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>167386</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>156731</v>
+        <v>156562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>177024</v>
+        <v>177126</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7888382322068331</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7386237261467448</v>
+        <v>0.7378303531356833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8342613647219628</v>
+        <v>0.8347390141972482</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>285</v>
@@ -5462,19 +5462,19 @@
         <v>148155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>138368</v>
+        <v>137798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157068</v>
+        <v>156905</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7187716853754432</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6712899906526992</v>
+        <v>0.6685266019669877</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7620132174304779</v>
+        <v>0.7612233541800174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>523</v>
@@ -5483,19 +5483,19 @@
         <v>315541</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>300489</v>
+        <v>299008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>329188</v>
+        <v>327951</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7543133486495773</v>
+        <v>0.7543133486495777</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7183321090414188</v>
+        <v>0.7147921308459262</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7869384540978021</v>
+        <v>0.7839808414751346</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>151263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>133012</v>
+        <v>134062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>170397</v>
+        <v>170155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2134722835719489</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1877158598314786</v>
+        <v>0.1891978786435002</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2404760271738865</v>
+        <v>0.2401344955545571</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>614</v>
@@ -5608,19 +5608,19 @@
         <v>330613</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>309248</v>
+        <v>309917</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>352235</v>
+        <v>352432</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3739864306498392</v>
+        <v>0.3739864306498391</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3498188744691929</v>
+        <v>0.3505750024732031</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3984448391389031</v>
+        <v>0.398667811768411</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>846</v>
@@ -5629,19 +5629,19 @@
         <v>481876</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>453490</v>
+        <v>451013</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>509761</v>
+        <v>512381</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.302570499195559</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2847468699160193</v>
+        <v>0.2831918146602987</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3200792800844077</v>
+        <v>0.3217245338631682</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>557319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>538185</v>
+        <v>538427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>575570</v>
+        <v>574520</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7865277164280512</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7595239728261146</v>
+        <v>0.759865504445443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8122841401685217</v>
+        <v>0.8108021213564999</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1054</v>
@@ -5679,19 +5679,19 @@
         <v>553411</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>531789</v>
+        <v>531592</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>574776</v>
+        <v>574107</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6260135693501611</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6015551608610969</v>
+        <v>0.601332188231589</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.650181125530807</v>
+        <v>0.6494249975267969</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1839</v>
@@ -5700,19 +5700,19 @@
         <v>1110731</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1082846</v>
+        <v>1080226</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1139117</v>
+        <v>1141594</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6974295008044409</v>
+        <v>0.6974295008044411</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6799207199155923</v>
+        <v>0.6782754661368318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7152531300839806</v>
+        <v>0.7168081853397015</v>
       </c>
     </row>
     <row r="18">
